--- a/docs/Seewo/list.xlsx
+++ b/docs/Seewo/list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\编程\server.github.io\Seewo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\编程\server.github.io\docs\Seewo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9CD6DE-0B0E-48EA-A82C-DF2F855F3614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC16A53-9E62-44BB-A765-26AC8386E6FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15563" yWindow="0" windowWidth="17999" windowHeight="10553" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="名单" sheetId="1" r:id="rId1"/>
@@ -503,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -546,7 +546,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -554,7 +554,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -562,7 +562,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -570,7 +570,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -578,7 +578,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -586,7 +586,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
@@ -594,7 +594,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
@@ -602,7 +602,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
@@ -610,7 +610,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
@@ -618,7 +618,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
@@ -626,7 +626,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
@@ -634,7 +634,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
@@ -642,7 +642,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
@@ -650,7 +650,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
@@ -658,7 +658,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
@@ -666,7 +666,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
@@ -674,15 +674,15 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>20</v>
+      <c r="B22" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
@@ -754,7 +754,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
@@ -762,7 +762,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
@@ -770,7 +770,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
@@ -778,7 +778,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
@@ -786,7 +786,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
@@ -794,7 +794,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
@@ -802,7 +802,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
@@ -810,7 +810,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
@@ -818,7 +818,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
@@ -826,7 +826,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
@@ -834,7 +834,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
@@ -842,15 +842,15 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>42</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>43</v>
+      <c r="B43" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
